--- a/materials/lv1.xlsx
+++ b/materials/lv1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\go-north\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7C10A-DC3A-4662-BB05-E5F299101C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE4965-D9ED-4BDE-AD7E-27A985014442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="1">
   <si>
     <t>#</t>
   </si>
@@ -376,7 +376,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L16"/>
+      <selection activeCell="A15" sqref="A15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -917,34 +917,34 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
